--- a/documents/QATesting.xlsx
+++ b/documents/QATesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="2680" windowWidth="28800" windowHeight="7140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Form Field Validations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="230">
   <si>
     <t>Page Name</t>
   </si>
@@ -416,25 +416,310 @@
     <t>Completed Data</t>
   </si>
   <si>
-    <t>Sort</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
     <t>ui.1</t>
   </si>
   <si>
     <t>Maroon 5</t>
   </si>
   <si>
-    <t>topURL12</t>
-  </si>
-  <si>
-    <t>Top Artist</t>
-  </si>
-  <si>
     <t>ui.2</t>
+  </si>
+  <si>
+    <t>ui.3</t>
+  </si>
+  <si>
+    <t>ui.4</t>
+  </si>
+  <si>
+    <t>ui.5</t>
+  </si>
+  <si>
+    <t>ui.6</t>
+  </si>
+  <si>
+    <t>ui.7</t>
+  </si>
+  <si>
+    <t>ui.8</t>
+  </si>
+  <si>
+    <t>ui.9</t>
+  </si>
+  <si>
+    <t>carouselitem</t>
+  </si>
+  <si>
+    <t>topartist1</t>
+  </si>
+  <si>
+    <t>topartist2</t>
+  </si>
+  <si>
+    <t>topartist3</t>
+  </si>
+  <si>
+    <t>topartist4</t>
+  </si>
+  <si>
+    <t>topartist5</t>
+  </si>
+  <si>
+    <t>topartist6</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>autocomplete1</t>
+  </si>
+  <si>
+    <t>cityform</t>
+  </si>
+  <si>
+    <t>autocomplete2</t>
+  </si>
+  <si>
+    <t>autocomplete3</t>
+  </si>
+  <si>
+    <t>autocomplete4</t>
+  </si>
+  <si>
+    <t>getinfo1</t>
+  </si>
+  <si>
+    <t>getinfo2</t>
+  </si>
+  <si>
+    <t>getinfo3</t>
+  </si>
+  <si>
+    <t>getinfo4</t>
+  </si>
+  <si>
+    <t>getinfo5</t>
+  </si>
+  <si>
+    <t>getinfo6</t>
+  </si>
+  <si>
+    <t>getinfo7</t>
+  </si>
+  <si>
+    <t>getinfo8</t>
+  </si>
+  <si>
+    <t>getinfo9</t>
+  </si>
+  <si>
+    <t>getinfo10</t>
+  </si>
+  <si>
+    <t>getinfo11</t>
+  </si>
+  <si>
+    <t>getinfo12</t>
+  </si>
+  <si>
+    <t>getinfo13</t>
+  </si>
+  <si>
+    <t>getinfo14</t>
+  </si>
+  <si>
+    <t>googlemaps</t>
+  </si>
+  <si>
+    <t>location1</t>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>location3</t>
+  </si>
+  <si>
+    <t>location4</t>
+  </si>
+  <si>
+    <t>location5</t>
+  </si>
+  <si>
+    <t>location6</t>
+  </si>
+  <si>
+    <t>location7</t>
+  </si>
+  <si>
+    <t>location8</t>
+  </si>
+  <si>
+    <t>location9</t>
+  </si>
+  <si>
+    <t>location10</t>
+  </si>
+  <si>
+    <t>location11</t>
+  </si>
+  <si>
+    <t>location12</t>
+  </si>
+  <si>
+    <t>ticketmaster</t>
+  </si>
+  <si>
+    <t>gettickets1</t>
+  </si>
+  <si>
+    <t>gettickets2</t>
+  </si>
+  <si>
+    <t>gettickets3</t>
+  </si>
+  <si>
+    <t>gettickets4</t>
+  </si>
+  <si>
+    <t>gettickets5</t>
+  </si>
+  <si>
+    <t>gettickets6</t>
+  </si>
+  <si>
+    <t>gettickets7</t>
+  </si>
+  <si>
+    <t>gettickets8</t>
+  </si>
+  <si>
+    <t>gettickets9</t>
+  </si>
+  <si>
+    <t>gettickets10</t>
+  </si>
+  <si>
+    <t>gettickets11</t>
+  </si>
+  <si>
+    <t>gettickets12</t>
+  </si>
+  <si>
+    <t>gettickets13</t>
+  </si>
+  <si>
+    <t>CustomUser</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>user input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max-length 30 </t>
+  </si>
+  <si>
+    <t>spotifyid</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>User input</t>
+  </si>
+  <si>
+    <t>max-length 31</t>
+  </si>
+  <si>
+    <t>pippidebree-us</t>
+  </si>
+  <si>
+    <t>max-length 32</t>
+  </si>
+  <si>
+    <t>max-length 33</t>
+  </si>
+  <si>
+    <t>alikinay</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>display top artists</t>
+  </si>
+  <si>
+    <t>Display artists in rank order</t>
+  </si>
+  <si>
+    <t>disploay related artists shows in your area</t>
+  </si>
+  <si>
+    <t>Display shows based on your top artists in your area</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display show information </t>
+  </si>
+  <si>
+    <t>Display image, artist information, location and ticket master link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results </t>
+  </si>
+  <si>
+    <t>artst</t>
+  </si>
+  <si>
+    <t>brings you to show infromation page</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Log in with spotify</t>
+  </si>
+  <si>
+    <t>lets you log in with spotify/facebook</t>
+  </si>
+  <si>
+    <t>Home button</t>
+  </si>
+  <si>
+    <t>Brings you to home page</t>
+  </si>
+  <si>
+    <t>current location set to button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop down menu that lets you pick city </t>
+  </si>
+  <si>
+    <t>My profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays profile picture, username, link to spotify account, default city and ability to change default city </t>
+  </si>
+  <si>
+    <t>user information</t>
+  </si>
+  <si>
+    <t>My profile button</t>
+  </si>
+  <si>
+    <t>brings you to your user page</t>
   </si>
 </sst>
 </file>
@@ -776,7 +1061,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:G33"/>
+      <selection activeCell="B34" sqref="B34:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,6 +1096,12 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -828,6 +1119,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -845,6 +1142,12 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -862,6 +1165,12 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -879,8 +1188,11 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -889,7 +1201,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -899,6 +1211,12 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -916,6 +1234,12 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
@@ -933,6 +1257,12 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -950,6 +1280,12 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -967,6 +1303,12 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
@@ -984,6 +1326,12 @@
       <c r="A12" t="s">
         <v>4</v>
       </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -1001,6 +1349,12 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
@@ -1018,6 +1372,12 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -1035,6 +1395,12 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -1052,6 +1418,12 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -1069,6 +1441,12 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
@@ -1077,12 +1455,21 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -1100,6 +1487,12 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
@@ -1117,6 +1510,12 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
@@ -1134,6 +1533,12 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -1151,6 +1556,12 @@
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
       <c r="D22" t="s">
         <v>69</v>
       </c>
@@ -1168,6 +1579,12 @@
       <c r="A23" t="s">
         <v>32</v>
       </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
@@ -1185,6 +1602,12 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
@@ -1202,6 +1625,12 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
       <c r="D25" t="s">
         <v>69</v>
       </c>
@@ -1219,6 +1648,12 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
       <c r="D26" t="s">
         <v>69</v>
       </c>
@@ -1236,6 +1671,12 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
       <c r="D27" t="s">
         <v>69</v>
       </c>
@@ -1253,6 +1694,12 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
       <c r="D28" t="s">
         <v>69</v>
       </c>
@@ -1270,6 +1717,12 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
       <c r="D29" t="s">
         <v>69</v>
       </c>
@@ -1287,6 +1740,12 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
       <c r="D30" t="s">
         <v>69</v>
       </c>
@@ -1304,6 +1763,12 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
       <c r="D31" t="s">
         <v>69</v>
       </c>
@@ -1321,6 +1786,12 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
       <c r="D32" t="s">
         <v>69</v>
       </c>
@@ -1338,6 +1809,12 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
       <c r="D33" t="s">
         <v>69</v>
       </c>
@@ -1355,6 +1832,12 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
@@ -1372,6 +1855,12 @@
       <c r="A35" t="s">
         <v>32</v>
       </c>
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
@@ -1389,6 +1878,12 @@
       <c r="A36" t="s">
         <v>32</v>
       </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
@@ -1406,6 +1901,12 @@
       <c r="A37" t="s">
         <v>32</v>
       </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
@@ -1423,6 +1924,12 @@
       <c r="A38" t="s">
         <v>32</v>
       </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
@@ -1440,6 +1947,12 @@
       <c r="A39" t="s">
         <v>32</v>
       </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
       <c r="D39" t="s">
         <v>33</v>
       </c>
@@ -1457,6 +1970,12 @@
       <c r="A40" t="s">
         <v>32</v>
       </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
@@ -1474,6 +1993,12 @@
       <c r="A41" t="s">
         <v>32</v>
       </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
       <c r="D41" t="s">
         <v>33</v>
       </c>
@@ -1491,6 +2016,12 @@
       <c r="A42" t="s">
         <v>32</v>
       </c>
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
       <c r="D42" t="s">
         <v>33</v>
       </c>
@@ -1508,6 +2039,12 @@
       <c r="A43" t="s">
         <v>32</v>
       </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>188</v>
+      </c>
       <c r="D43" t="s">
         <v>33</v>
       </c>
@@ -1525,6 +2062,12 @@
       <c r="A44" t="s">
         <v>32</v>
       </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>189</v>
+      </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
@@ -1542,6 +2085,12 @@
       <c r="A45" t="s">
         <v>32</v>
       </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
       <c r="D45" t="s">
         <v>33</v>
       </c>
@@ -1559,6 +2108,12 @@
       <c r="A46" t="s">
         <v>32</v>
       </c>
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
       <c r="D46" t="s">
         <v>33</v>
       </c>
@@ -1576,6 +2131,12 @@
       <c r="A47" t="s">
         <v>104</v>
       </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
       <c r="D47" t="s">
         <v>105</v>
       </c>
@@ -1593,6 +2154,12 @@
       <c r="A48" t="s">
         <v>104</v>
       </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
       <c r="D48" t="s">
         <v>105</v>
       </c>
@@ -1610,6 +2177,12 @@
       <c r="A49" t="s">
         <v>104</v>
       </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
       <c r="D49" t="s">
         <v>105</v>
       </c>
@@ -1626,6 +2199,12 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
       </c>
       <c r="D50" t="s">
         <v>105</v>
@@ -1647,13 +2226,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1679,6 +2261,110 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2">
+        <v>1210970527</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5">
+        <v>123971019</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1688,13 +2374,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1718,13 +2408,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1735,15 +2425,134 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
         <v>133</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
         <v>134</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1756,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,6 +2601,9 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1803,6 +2615,9 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1814,6 +2629,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1825,6 +2643,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1836,6 +2657,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1847,6 +2671,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1858,6 +2685,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1869,6 +2699,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1880,6 +2713,9 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1891,6 +2727,9 @@
       <c r="C11">
         <v>3</v>
       </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1902,6 +2741,9 @@
       <c r="C12">
         <v>3</v>
       </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1912,6 +2754,9 @@
       </c>
       <c r="C13">
         <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1924,6 +2769,9 @@
       <c r="C14">
         <v>3</v>
       </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1935,6 +2783,9 @@
       <c r="C15">
         <v>3</v>
       </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1945,6 +2796,9 @@
       </c>
       <c r="C16">
         <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
